--- a/data/trans_dic/P36BPD04_2023_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_2023_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,19; 96,82</t>
+          <t>88,19; 96,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,06; 94,4</t>
+          <t>84,59; 94,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>88,48; 94,91</t>
+          <t>88,67; 94,99</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,48; 92,83</t>
+          <t>84,46; 93,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,41; 95,82</t>
+          <t>90,19; 96,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,76; 93,78</t>
+          <t>88,56; 93,53</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,31; 96,0</t>
+          <t>91,67; 96,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,72; 95,98</t>
+          <t>92,68; 95,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,69; 95,49</t>
+          <t>92,75; 95,58</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,42; 97,77</t>
+          <t>90,18; 97,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,06; 95,9</t>
+          <t>93,19; 96,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,55; 96,65</t>
+          <t>92,42; 96,58</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>93,05; 96,41</t>
+          <t>93,04; 96,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,48; 96,32</t>
+          <t>93,44; 96,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,59; 96,0</t>
+          <t>93,83; 96,14</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>93,43; 96,93</t>
+          <t>93,19; 97,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>20,94; 97,78</t>
+          <t>27,21; 97,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,17; 96,88</t>
+          <t>41,48; 96,79</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>96,64; 99,27</t>
+          <t>96,61; 99,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>96,27; 98,46</t>
+          <t>96,29; 98,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,9; 98,64</t>
+          <t>96,95; 98,6</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,84; 95,4</t>
+          <t>92,65; 95,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72,57; 95,05</t>
+          <t>72,85; 95,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,25; 94,69</t>
+          <t>81,8; 94,62</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume fruta o zumos al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>374282</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>282749</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>657031</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>352751; 387482</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>264939; 296634</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>632413; 677455</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>378113</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>476435</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>854547</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>357735; 394769</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>461335; 491100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>828114; 874526</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1318</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>504624</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>512301</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1016924</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>491514; 514824</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>502758; 520247</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1000431; 1030980</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1695</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>835778</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>673947</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1509725</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>800588; 865466</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>663456; 683516</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1478533; 1545060</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1585</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>532086</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>520434</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1052520</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>521209; 540270</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>511490; 527566</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1039298; 1064877</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>802</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1349</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>351348</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>391711</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>743059</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>343102; 357240</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>165105; 593896</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>404370; 943593</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1312</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>278021</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>415088</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>693109</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>273161; 280743</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>409660; 419276</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>686614; 698294</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3200</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>8311</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>3254253</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3272664</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>6526917</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>3204447; 3297687</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2665395; 3477676</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>5822062; 6734243</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>